--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2737504.442798994</v>
+        <v>2841738.151192442</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8776038.126840623</v>
+        <v>8784951.01809223</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>241.1023338132611</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>62.45439117602552</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>133.3443269631528</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.279163323328</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>44.41113644355256</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>180.1454415463385</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.1797885310544</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>99.59933623926882</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>147.2077150633797</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>8.308795978926666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>283.4718046551098</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>194.5925645878131</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>41.16673120696609</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>185.0663491738896</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>235.8905539345547</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>70.803028119798</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>13.74238375877706</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.35517081455633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>22.44547853568561</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>21.35866177150567</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3196,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G34" t="n">
-        <v>97.22826981530201</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>152.8697920431064</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>178.4855482404964</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>114.2935157990527</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.619672595758211</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2193560244676</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2318.801617477669</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>1987.738730134099</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>846.3749096777597</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1248.815953651529</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>1248.815953651529</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="Y4" t="n">
-        <v>1028.023374507999</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754388</v>
+        <v>2141.34427854677</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1772.381761606358</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1414.116062999607</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218336</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520485</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794322</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794322</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794322</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.66759681851</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387288</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4661,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218336</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1525.326049237485</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1236.223182363129</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1236.223182363129</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1236.223182363129</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1008.233631465111</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1008.233631465111</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>634.7363945304596</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C10" t="n">
-        <v>634.7363945304596</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D10" t="n">
-        <v>634.7363945304596</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>486.8233009480665</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>339.9333534501561</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>172.2305168248751</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1097.172036790967</v>
       </c>
       <c r="X10" t="n">
-        <v>1037.177438504229</v>
+        <v>869.1824858929492</v>
       </c>
       <c r="Y10" t="n">
-        <v>816.3848593606994</v>
+        <v>648.3899067494191</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5038,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,10 +5074,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5118,22 +5120,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1780.902934462213</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.218446256326</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.801276219365</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.811725321348</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5315,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057155</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>449.4852666057155</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>302.5953191078052</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>135.3992198226851</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>135.3992198226851</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5543,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,22 +5758,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.3568999154069</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>709.4207169875</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>709.4207169875</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>561.5076234051069</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>414.6176759071965</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>247.4215766220764</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6226,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X28" t="n">
-        <v>1327.139029956954</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3046.798896214207</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C31" t="n">
-        <v>2877.8627132863</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>2877.8627132863</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>2729.949619703907</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>2583.059672205996</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044447</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.681434529216</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7452516013095</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6286121889738</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7155186065806</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8255711086703</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.329899359456</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6941,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,16 +7250,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
         <v>716.6687843969308</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3052.912304341663</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C40" t="n">
-        <v>2883.976121413757</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D40" t="n">
-        <v>2733.859482001421</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001421</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
         <v>2337.686731866304</v>
@@ -7354,28 +7356,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>4670.716426881531</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>4487.861592536436</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>4268.260127559377</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>3979.184900903575</v>
       </c>
       <c r="V40" t="n">
-        <v>3751.967490106881</v>
+        <v>3724.500412697688</v>
       </c>
       <c r="W40" t="n">
-        <v>3462.55032006992</v>
+        <v>3435.083242660728</v>
       </c>
       <c r="X40" t="n">
-        <v>3234.560769171903</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y40" t="n">
-        <v>3234.560769171903</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,25 +7663,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3194.056622594532</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C46" t="n">
-        <v>3025.120439666625</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741617</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159224</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661314</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636079</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738062</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y46" t="n">
-        <v>3194.056622594532</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>91.59190980143106</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.09910511159944</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>67.07129414993838</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>50.29392045468944</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>69.49168472642589</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.6630665685112</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.2294825375384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>144.1654765207632</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G34" t="n">
-        <v>68.29586847696683</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>99.26785128072157</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>73.65209508333157</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.9958004224542</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>40.30478226780124</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>768612.796599647</v>
+        <v>777525.6878512532</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884403</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312018</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312033</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768899</v>
@@ -26436,16 +26438,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768961</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768896</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
+        <v>9947.144321768963</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768952</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26454,10 +26456,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>107933.9405613933</v>
-      </c>
-      <c r="C5" t="n">
-        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848453.4052440727</v>
+        <v>-668260.5062849526</v>
       </c>
       <c r="C6" t="n">
-        <v>480291.3404835208</v>
+        <v>276852.5988714141</v>
       </c>
       <c r="D6" t="n">
-        <v>480291.3404835202</v>
+        <v>480291.3404835199</v>
       </c>
       <c r="E6" t="n">
-        <v>229413.8087912236</v>
+        <v>229413.8087912237</v>
       </c>
       <c r="F6" t="n">
+        <v>554826.2705985792</v>
+      </c>
+      <c r="G6" t="n">
+        <v>554826.2705985792</v>
+      </c>
+      <c r="H6" t="n">
         <v>554826.270598579</v>
-      </c>
-      <c r="G6" t="n">
-        <v>554826.2705985787</v>
-      </c>
-      <c r="H6" t="n">
-        <v>554826.2705985788</v>
       </c>
       <c r="I6" t="n">
         <v>554826.2705985788</v>
       </c>
       <c r="J6" t="n">
-        <v>337295.0682013014</v>
+        <v>387221.0927885963</v>
       </c>
       <c r="K6" t="n">
+        <v>505716.1778925243</v>
+      </c>
+      <c r="L6" t="n">
+        <v>554826.2705985787</v>
+      </c>
+      <c r="M6" t="n">
+        <v>469771.2426630668</v>
+      </c>
+      <c r="N6" t="n">
+        <v>554826.270598579</v>
+      </c>
+      <c r="O6" t="n">
         <v>554826.2705985791</v>
       </c>
-      <c r="L6" t="n">
-        <v>554826.2705985788</v>
-      </c>
-      <c r="M6" t="n">
-        <v>469771.2426630667</v>
-      </c>
-      <c r="N6" t="n">
-        <v>554826.2705985787</v>
-      </c>
-      <c r="O6" t="n">
-        <v>554826.270598579</v>
-      </c>
       <c r="P6" t="n">
-        <v>554826.270598579</v>
+        <v>554826.2705985791</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>9.942916315200904</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>307.2767095024435</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>153.1786713734382</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>19.43049206570913</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>320.861755327455</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>201.7849285259232</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>11.36916074511481</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>307.2767095024426</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>103.7874568955223</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>136.4462189353941</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.051193681481152</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>469.5567819573404</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N15" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L21" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>729.0844763571695</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33184,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>516.654215558583</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33421,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33500,19 +33502,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33743,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34205,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>509.0826837242976</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>223.6976288294628</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>327.4227480353221</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N15" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>586.9504424351511</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>374.5201816365647</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37391,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>377.7409716409642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>81.10138438501835</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2841738.151192442</v>
+        <v>2837684.025433064</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>35.54361781414397</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.1023338132611</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.95845526090694</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>206.279163323328</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>180.1454415463385</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>394.2071006265878</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>192.0524966157161</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>99.59933623926882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>228.6766077235068</v>
       </c>
       <c r="W10" t="n">
-        <v>283.4718046551098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>185.0663491738896</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>13.74238375877706</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>22.44547853568561</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>104.7777418077832</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189153</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G46" t="n">
-        <v>125.2193560244676</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,16 +4188,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>474.7217947496364</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>105.7592778092247</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>105.7592778092247</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>105.7592778092247</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>98.81377706002125</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>87.14943082471419</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>87.14943082471419</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2318.801617477669</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1987.738730134099</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1634.970074863985</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1634.970074863985</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634.970074863985</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429759</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.9577966591559</v>
+        <v>783.0370443974457</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>614.1008614695388</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>463.9842220572031</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>316.0711284748099</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>169.1811809768996</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X4" t="n">
-        <v>1173.398840632926</v>
+        <v>1185.478088371216</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.6062614893956</v>
+        <v>964.6855092276854</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2141.34427854677</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C5" t="n">
-        <v>1772.381761606358</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D5" t="n">
-        <v>1414.116062999607</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.34427854677</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796265</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796265</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.3899067494191</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
         <v>331.5406302391191</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1696.308075640506</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.172036790967</v>
+        <v>1406.890905603545</v>
       </c>
       <c r="X10" t="n">
-        <v>869.1824858929492</v>
+        <v>1178.901354705528</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.3899067494191</v>
+        <v>958.1087755619981</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5044,22 +5044,22 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5296,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556308</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,19 +6065,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
         <v>402.7245934908939</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1639.421634909942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,34 +6481,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>738.560493261518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>590.6473996791249</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7256,22 +7256,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2804.65264778894</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>2635.716464861033</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>2485.599825448698</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4670.716426881531</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S40" t="n">
-        <v>4487.861592536436</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T40" t="n">
-        <v>4268.260127559377</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>3979.184900903575</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>3724.500412697688</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>3435.083242660728</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>3207.09369176271</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>2986.30111261918</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7551,16 +7551,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.955258982919</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C46" t="n">
-        <v>889.0190760550122</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D46" t="n">
-        <v>738.9024366426764</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E46" t="n">
-        <v>590.9893430602833</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F46" t="n">
-        <v>444.0993955623729</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854706</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.396302956689</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.603723813159</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241562</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>67.07129414993838</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>75.37549921168723</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>43.26526345294991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.6630665685112</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>40.64330621514807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823016</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G46" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755759.7641884403</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="13">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
@@ -26325,37 +26325,37 @@
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.700727081101424e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605445</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768843</v>
+      </c>
+      <c r="F4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9947.144321768899</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26444,7 +26444,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668260.5062849526</v>
+        <v>-668260.5062849523</v>
       </c>
       <c r="C6" t="n">
         <v>276852.5988714141</v>
@@ -26530,40 +26530,40 @@
         <v>480291.3404835199</v>
       </c>
       <c r="E6" t="n">
-        <v>229413.8087912237</v>
+        <v>229066.4295368668</v>
       </c>
       <c r="F6" t="n">
-        <v>554826.2705985792</v>
+        <v>554478.8913442222</v>
       </c>
       <c r="G6" t="n">
-        <v>554826.2705985792</v>
+        <v>554478.8913442222</v>
       </c>
       <c r="H6" t="n">
-        <v>554826.270598579</v>
+        <v>554478.8913442221</v>
       </c>
       <c r="I6" t="n">
-        <v>554826.2705985788</v>
+        <v>554478.8913442219</v>
       </c>
       <c r="J6" t="n">
-        <v>387221.0927885963</v>
+        <v>386873.7135342392</v>
       </c>
       <c r="K6" t="n">
-        <v>505716.1778925243</v>
+        <v>505368.7986381674</v>
       </c>
       <c r="L6" t="n">
-        <v>554826.2705985787</v>
+        <v>554478.8913442219</v>
       </c>
       <c r="M6" t="n">
-        <v>469771.2426630668</v>
+        <v>469423.8634087101</v>
       </c>
       <c r="N6" t="n">
-        <v>554826.270598579</v>
+        <v>554478.8913442219</v>
       </c>
       <c r="O6" t="n">
-        <v>554826.2705985791</v>
+        <v>554478.891344222</v>
       </c>
       <c r="P6" t="n">
-        <v>554826.2705985791</v>
+        <v>554478.891344222</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>30.16629485832649</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>9.942916315200904</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>154.3481447838973</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27590,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>19.43049206570913</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>201.7849285259232</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>162.6305450049669</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>23.46103560032122</v>
       </c>
       <c r="W10" t="n">
-        <v>3.051193681481152</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32074,34 +32074,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,7 +32800,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>522.1224556861836</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33976,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>397.620397467641</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,7 +36448,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>379.5262112417391</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2837684.025433064</v>
+        <v>2839444.555735848</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>115.0641708113693</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.54361781414397</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>122.0870627977165</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.95845526090694</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>394.2071006265878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991713</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>73.34931970216546</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>261.7337600035931</v>
       </c>
       <c r="D8" t="n">
-        <v>192.0524966157161</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>238.9171930685446</v>
       </c>
       <c r="V10" t="n">
-        <v>228.6766077235068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>205.3566940380638</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>240.0633098883605</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>105.6507867899574</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428162</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>70.04554881124324</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496364</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="C2" t="n">
-        <v>105.7592778092247</v>
+        <v>918.4726736852006</v>
       </c>
       <c r="D2" t="n">
-        <v>105.7592778092247</v>
+        <v>560.2069750784501</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7592778092247</v>
+        <v>174.4187224802059</v>
       </c>
       <c r="F2" t="n">
-        <v>98.81377706002125</v>
+        <v>167.4732217310024</v>
       </c>
       <c r="G2" t="n">
-        <v>87.14943082471419</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>87.14943082471419</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137582</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429752</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>783.0370443974457</v>
+        <v>493.6198743604846</v>
       </c>
       <c r="C4" t="n">
-        <v>614.1008614695388</v>
+        <v>324.6836914325777</v>
       </c>
       <c r="D4" t="n">
-        <v>463.9842220572031</v>
+        <v>174.567052020242</v>
       </c>
       <c r="E4" t="n">
-        <v>316.0711284748099</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>169.1811809768996</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W4" t="n">
-        <v>1413.467639269233</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X4" t="n">
-        <v>1185.478088371216</v>
+        <v>896.0609183342544</v>
       </c>
       <c r="Y4" t="n">
-        <v>964.6855092276854</v>
+        <v>675.2683391907243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796252</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796252</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796252</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4710,19 +4710,19 @@
         <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>140.6023383535627</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559526</v>
+        <v>2240.582457090718</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559526</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>2240.582457090718</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.4603107317583</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V10" t="n">
-        <v>1696.308075640506</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.890905603545</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X10" t="n">
-        <v>1178.901354705528</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y10" t="n">
-        <v>958.1087755619981</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5044,10 +5044,10 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D13" t="n">
         <v>484.8112968429802</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797189</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5776,28 +5776,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5837,13 +5837,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5901,13 +5901,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,16 +6308,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6375,7 +6375,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,22 +6715,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6840,22 +6840,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7259,16 +7259,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372932</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450255</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326898</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502967</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346702</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203172</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241554</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>54.95314511566596</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>12.04875628922449</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.37549921168723</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393074</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>75.37549921168801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>3.700727081101424e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312026</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768843</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26435,7 +26435,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26447,7 +26447,7 @@
         <v>9947.144321768899</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26524,46 +26524,46 @@
         <v>-668260.5062849523</v>
       </c>
       <c r="C6" t="n">
-        <v>276852.5988714141</v>
+        <v>276852.598871414</v>
       </c>
       <c r="D6" t="n">
-        <v>480291.3404835199</v>
+        <v>480291.3404835203</v>
       </c>
       <c r="E6" t="n">
-        <v>229066.4295368668</v>
+        <v>229379.0708657877</v>
       </c>
       <c r="F6" t="n">
-        <v>554478.8913442222</v>
+        <v>554791.5326731435</v>
       </c>
       <c r="G6" t="n">
-        <v>554478.8913442222</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="H6" t="n">
-        <v>554478.8913442221</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="I6" t="n">
-        <v>554478.8913442219</v>
+        <v>554791.5326731434</v>
       </c>
       <c r="J6" t="n">
-        <v>386873.7135342392</v>
+        <v>387186.3548631606</v>
       </c>
       <c r="K6" t="n">
-        <v>505368.7986381674</v>
+        <v>505681.4399670888</v>
       </c>
       <c r="L6" t="n">
-        <v>554478.8913442219</v>
+        <v>554791.5326731432</v>
       </c>
       <c r="M6" t="n">
-        <v>469423.8634087101</v>
+        <v>469736.5047376312</v>
       </c>
       <c r="N6" t="n">
-        <v>554478.8913442219</v>
+        <v>554791.5326731432</v>
       </c>
       <c r="O6" t="n">
-        <v>554478.891344222</v>
+        <v>554791.5326731431</v>
       </c>
       <c r="P6" t="n">
-        <v>554478.891344222</v>
+        <v>554791.5326731431</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.62590885137678e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.62590885137678e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.62590885137678e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>296.4835319615847</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>30.16629485832649</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>24.34689984885271</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>154.3481447838973</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.66894511512362</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.3554362891111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>23.00310070767263</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>103.5391317674144</v>
       </c>
       <c r="D8" t="n">
-        <v>162.6305450049669</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>47.29464513706824</v>
       </c>
       <c r="V10" t="n">
-        <v>23.46103560032122</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676403</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>304.6326742391982</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35971,13 +35971,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795101</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683835</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
